--- a/Bonds_and_cds_v2.xlsx
+++ b/Bonds_and_cds_v2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.Zbookrs-HP\Dropbox\Rachelle\edu\coursera - Financial Engineering and Risk Management I\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE033D7C-5136-4237-871A-B2B201A9476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23020" windowHeight="17240" activeTab="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing" sheetId="2" r:id="rId1"/>
@@ -57,7 +63,7 @@
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Calibration!$J$21</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'CDS pricing'!$H$18</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'CDS pricing'!$H$30</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
@@ -85,8 +91,16 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -406,17 +420,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +445,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -547,12 +558,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Zero coupon bond with recovery"/>
@@ -871,30 +885,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="227" zoomScalePageLayoutView="227" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" s="13" customFormat="1" ht="28">
+    <row r="2" spans="1:36" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -907,7 +921,7 @@
       <c r="J2" s="14"/>
       <c r="P2" s="14"/>
     </row>
-    <row r="3" spans="1:36" s="15" customFormat="1" ht="42">
+    <row r="3" spans="1:36" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -932,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="13" customFormat="1" ht="56">
+    <row r="4" spans="1:36" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1023,7 @@
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1040,7 +1054,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.02</v>
       </c>
@@ -1056,7 +1070,7 @@
       <c r="V6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6</f>
         <v>0.02</v>
@@ -1127,7 +1141,7 @@
         <v>9.9512195121951237</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A16" si="1">A7</f>
         <v>0.02</v>
@@ -1198,7 +1212,7 @@
         <v>9.5143367043426519</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1259,7 +1273,7 @@
         <v>9.096634117322731</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1320,7 +1334,7 @@
         <v>8.6972696926597841</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1371,7 +1385,7 @@
         <v>8.3154383402991083</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1422,7 +1436,7 @@
         <v>7.9503703156030516</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1464,7 +1478,7 @@
         <v>7.6013296676009672</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1506,7 +1520,7 @@
         <v>7.2676127553648273</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1539,7 +1553,7 @@
         <v>6.9485468295195432</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>0.02</v>
@@ -1572,11 +1586,11 @@
         <v>70.473085759438959</v>
       </c>
     </row>
-    <row r="17" spans="9:34">
+    <row r="17" spans="9:34" x14ac:dyDescent="0.25">
       <c r="V17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="9:34">
+    <row r="18" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
@@ -1625,32 +1639,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="217" zoomScalePageLayoutView="217" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScaleNormal="217" zoomScalePageLayoutView="217" workbookViewId="0">
       <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="1"/>
-    <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
@@ -1659,7 +1673,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="15" customFormat="1" ht="42">
+    <row r="3" spans="1:36" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1685,7 +1699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1775,7 @@
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1806,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2.014057304019802E-2</v>
       </c>
@@ -1808,7 +1822,7 @@
       <c r="V6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>A6</f>
         <v>2.014057304019802E-2</v>
@@ -1879,7 +1893,7 @@
         <v>9.9525909564897379</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>1.9443103338662979E-2</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>9.5142829964793592</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>A8</f>
         <v>1.9443103338662979E-2</v>
@@ -2010,7 +2024,7 @@
         <v>9.0890594985670514</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>1.9976518871469267E-2</v>
       </c>
@@ -2070,7 +2084,7 @@
         <v>8.6949658297416175</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>A10</f>
         <v>1.9976518871469267E-2</v>
@@ -2121,7 +2135,7 @@
         <v>8.3223120242149253</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>2.0123673396117106E-2</v>
       </c>
@@ -2171,7 +2185,7 @@
         <v>7.9571328790331126</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>A12</f>
         <v>2.0123673396117106E-2</v>
@@ -2213,7 +2227,7 @@
         <v>7.6090752449997652</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1.9475644903174275E-2</v>
       </c>
@@ -2254,7 +2268,7 @@
         <v>7.2741001950467439</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>A14</f>
         <v>1.9475644903174275E-2</v>
@@ -2287,7 +2301,7 @@
         <v>6.9494543713880432</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1.7479162988672775E-2</v>
       </c>
@@ -2319,11 +2333,11 @@
         <v>70.587046740053751</v>
       </c>
     </row>
-    <row r="17" spans="9:34">
+    <row r="17" spans="9:34" x14ac:dyDescent="0.25">
       <c r="V17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="9:34">
+    <row r="18" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I18" s="6" t="s">
         <v>27</v>
       </c>
@@ -2360,87 +2374,87 @@
         <v>145.9500207360141</v>
       </c>
     </row>
-    <row r="19" spans="9:34">
+    <row r="19" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">Pricing!J18+0.1*RAND()</f>
-        <v>101.18817923210163</v>
+        <v>101.20835341114525</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="1">
         <f ca="1">Pricing!P18+0.1*RAND()</f>
-        <v>92.549107496940891</v>
+        <v>92.558099005992005</v>
       </c>
       <c r="U19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="V19" s="1">
         <f ca="1">Pricing!V18+0.1*RAND()</f>
-        <v>107.44359664722892</v>
+        <v>107.35943056554551</v>
       </c>
       <c r="AA19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AB19" s="1">
         <f ca="1">Pricing!AB18+0.1*RAND()</f>
-        <v>104.08067136195869</v>
+        <v>104.0797966942398</v>
       </c>
       <c r="AG19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="AH19" s="1">
         <f ca="1">Pricing!AH18+0.1*RAND()</f>
-        <v>145.88377083623996</v>
-      </c>
-    </row>
-    <row r="20" spans="9:34">
+        <v>145.81929983496445</v>
+      </c>
+    </row>
+    <row r="20" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="1">
         <f ca="1">(J18-J19)^2</f>
-        <v>4.7211266687079145E-3</v>
+        <v>7.9004782239188165E-3</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="P20" s="1">
         <f ca="1">(P18-P19)^2</f>
-        <v>2.8575737803224538E-3</v>
+        <v>1.9771157797469187E-3</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="V20" s="1">
         <f ca="1">(V18-V19)^2</f>
-        <v>2.9743832156076981E-3</v>
+        <v>8.7782878088502948E-4</v>
       </c>
       <c r="AA20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AB20" s="1">
         <f ca="1">(AB18-AB19)^2</f>
-        <v>7.7807902194101489E-6</v>
+        <v>3.6662256962360094E-6</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AH20" s="1">
         <f ca="1">(AH18-AH19)^2</f>
-        <v>4.3890492200829596E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="9:34">
+        <v>1.7087953971230342E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:34" x14ac:dyDescent="0.25">
       <c r="I21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="18">
         <f ca="1">J20+P20+V20+AB20+AH20</f>
-        <v>1.4949913674940436E-2</v>
+        <v>2.7847042981477339E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2455,63 +2469,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="19" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="8">
-        <v>218.88953946553033</v>
+        <v>302</v>
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="11">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="8">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="81" customHeight="1">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -2549,7 +2563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2557,8 +2571,8 @@
         <v>1</v>
       </c>
       <c r="C6" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
+        <f>0.01</f>
+        <v>0.01</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
@@ -2567,423 +2581,1023 @@
       <c r="F6" s="1"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B14" si="0">1/(1+$B$4/4)^(A7/3)</f>
-        <v>0.99750623441396513</v>
+        <f t="shared" ref="B7:B26" si="0">1/(1+$B$4/4)^(A7/3)</f>
+        <v>0.98765432098765438</v>
       </c>
       <c r="C7" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
+        <f t="shared" ref="C7:C26" si="1">0.01</f>
+        <v>0.01</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D14" si="1">D6*(1-C6)</f>
-        <v>98.992971347990107</v>
+        <f t="shared" ref="D7:D26" si="2">D6*(1-C6)</f>
+        <v>99</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ref="E7:E14" si="2">$B$1/4</f>
-        <v>54.722384866382583</v>
+        <f>$B$1/4</f>
+        <v>75.5</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F14" si="3">E7*D7/100</f>
-        <v>54.171314771714989</v>
+        <v>74.745000000000005</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" ref="G7:G14" si="4">F7*B7*N*0.0001</f>
-        <v>5403.6224211187027</v>
+        <v>73822.222222222234</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:H14" si="5">D6*C6</f>
-        <v>1.007028652009901</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ref="I7:I14" si="6">E7/2*H7/100</f>
-        <v>0.2755350473338013</v>
+        <v>0.3775</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" ref="J7:J14" si="7">I7*B7*N*0.0001</f>
-        <v>27.484792751501381</v>
+        <v>372.83950617283955</v>
       </c>
       <c r="K7" s="22">
         <f t="shared" ref="K7:K14" si="8">(1-$B$3)*H7/100</f>
-        <v>5.5386575860544565E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ref="L7:L14" si="9">K7*B7*N</f>
-        <v>5524.8454723735231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>74074.074074074073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>0.99501868769472834</v>
+        <v>0.97546105776558456</v>
       </c>
       <c r="C8" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>97.996083763039891</v>
+        <f t="shared" si="2"/>
+        <v>98.01</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" ref="E7:E26" si="10">$B$1/4</f>
+        <v>75.5</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>53.625794110793343</v>
+        <v>73.997550000000004</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="4"/>
-        <v>5335.8667282709284</v>
+        <v>72181.728395061742</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="5"/>
-        <v>0.99688758495021235</v>
+        <v>0.99</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="6"/>
-        <v>0.27276033046082093</v>
+        <v>0.37372500000000003</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="7"/>
-        <v>27.140162607030646</v>
+        <v>364.55418381344316</v>
       </c>
       <c r="K8" s="22">
         <f t="shared" si="8"/>
-        <v>5.4828817172261676E-3</v>
+        <v>7.4249999999999993E-3</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="9"/>
-        <v>5455.5697710597997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>72427.983539094654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>0.99253734433389373</v>
+        <v>0.96341832865736754</v>
       </c>
       <c r="C9" s="19">
-        <f>Calibration!$A$6/2</f>
-        <v>1.007028652009901E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>97.009235121698453</v>
+        <f t="shared" si="2"/>
+        <v>97.029899999999998</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>53.085766999229811</v>
+        <v>73.257574500000004</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>5268.9606199343407</v>
+        <v>70577.689986282596</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="5"/>
-        <v>0.98684864134143413</v>
+        <v>0.98010000000000008</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="6"/>
-        <v>0.27001355578176356</v>
+        <v>0.36998775</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="7"/>
-        <v>26.799853758978326</v>
+        <v>356.45297972869997</v>
       </c>
       <c r="K9" s="22">
         <f t="shared" si="8"/>
-        <v>5.4276675273778885E-3</v>
+        <v>7.3507500000000005E-3</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="9"/>
-        <v>5387.1627135509607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>70818.472793781446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0.99006218886173936</v>
+        <v>0.9515242752171531</v>
       </c>
       <c r="C10" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>96.032324328927302</v>
+        <f t="shared" si="2"/>
+        <v>96.059601000000001</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>52.551178115408355</v>
+        <v>72.524998754999999</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>5202.8934432204333</v>
+        <v>69009.296875476313</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="5"/>
-        <v>0.97691079277115545</v>
+        <v>0.97029900000000002</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="6"/>
-        <v>0.26729444191073043</v>
+        <v>0.3662878725</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="7"/>
-        <v>26.46381202287148</v>
+        <v>348.53180240139551</v>
       </c>
       <c r="K10" s="22">
         <f t="shared" si="8"/>
-        <v>5.3730093602413556E-3</v>
+        <v>7.2772425000000003E-3</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="9"/>
-        <v>5319.61340797517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>69244.728953919635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0.98759320584712151</v>
+        <v>0.93977706194286736</v>
       </c>
       <c r="C11" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>95.098741126037638</v>
+        <f t="shared" si="2"/>
+        <v>95.099004989999997</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>52.040299122075169</v>
+        <v>71.799748767449998</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="4"/>
-        <v>5139.4645843213366</v>
+        <v>67475.756944910172</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="5"/>
-        <v>0.93358320288966623</v>
+        <v>0.96059601000000006</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="6"/>
-        <v>0.25543949666659227</v>
+        <v>0.36262499377500002</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="7"/>
-        <v>25.227031141293502</v>
+        <v>340.78665123692014</v>
       </c>
       <c r="K11" s="22">
         <f t="shared" si="8"/>
-        <v>5.1347076158931651E-3</v>
+        <v>7.2044700750000003E-3</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="9"/>
-        <v>5071.0023554675618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>67705.957199388096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0.98513037989737828</v>
+        <v>0.92817487599295534</v>
       </c>
       <c r="C12" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>94.174233800492473</v>
+        <f t="shared" si="2"/>
+        <v>94.148014940099998</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>51.534386665272443</v>
+        <v>71.081751279775503</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>5076.8089913338235</v>
+        <v>65976.29567946773</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="5"/>
-        <v>0.92450732554515436</v>
+        <v>0.95099004990000002</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="6"/>
-        <v>0.25295622840135995</v>
+        <v>0.35899874383725</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="7"/>
-        <v>24.919486538243973</v>
+        <v>333.21361454276632</v>
       </c>
       <c r="K12" s="22">
         <f t="shared" si="8"/>
-        <v>5.084790290498349E-3</v>
+        <v>7.1324253742500003E-3</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="9"/>
-        <v>5009.1813905771387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>66201.380372735017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0.98267369565823282</v>
+        <v>0.91671592690662274</v>
       </c>
       <c r="C13" s="19">
-        <f>Calibration!$A$8/2</f>
-        <v>9.7215516693314897E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>93.258714120681276</v>
+        <f t="shared" si="2"/>
+        <v>93.206534790698996</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>51.033392462558687</v>
+        <v>70.370933766977743</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="4"/>
-        <v>5014.9172373159554</v>
+        <v>64510.155775479558</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="5"/>
-        <v>0.91551967981119164</v>
+        <v>0.941480149401</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="6"/>
-        <v>0.25049710135687692</v>
+        <v>0.35540875639887753</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="7"/>
-        <v>24.615691234203716</v>
+        <v>325.8088675529271</v>
       </c>
       <c r="K13" s="22">
         <f t="shared" si="8"/>
-        <v>5.0353582389615547E-3</v>
+        <v>7.0611011205075E-3</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="9"/>
-        <v>4948.1140896434817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>64730.238586674248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>0.98022313781369852</v>
+        <v>0.90539844632752842</v>
       </c>
       <c r="C14" s="19">
-        <f>Calibration!$A$9/2</f>
-        <v>9.7215516693314897E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.01</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>92.35209471274166</v>
+        <f t="shared" si="2"/>
+        <v>92.274469442792011</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>54.722384866382583</v>
+        <f t="shared" si="10"/>
+        <v>75.5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>50.537268700872659</v>
+        <v>69.667224429307964</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>4953.7800102503415</v>
+        <v>63076.596758246662</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="5"/>
-        <v>0.90661940793961726</v>
+        <v>0.93206534790699003</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="6"/>
-        <v>0.24806188084301822</v>
+        <v>0.3518546688348887</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="7"/>
-        <v>24.315599521191114</v>
+        <v>318.56867049619524</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="8"/>
-        <v>4.9864067436678951E-3</v>
+        <v>6.990490109302425E-3</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="9"/>
-        <v>4887.791264693531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="F16" s="10" t="s">
+        <v>63291.7888403037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+3</f>
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89422068773089236</v>
+      </c>
+      <c r="C15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>91.351724748364092</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ref="F15:F26" si="11">E15*D15/100</f>
+        <v>68.970552185014881</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:G26" si="12">F15*B15*N*0.0001</f>
+        <v>61674.894608063412</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:H26" si="13">D14*C14</f>
+        <v>0.92274469442792018</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:I26" si="14">E15/2*H15/100</f>
+        <v>0.34833612214653992</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" ref="J15:J26" si="15">I15*B15*N*0.0001</f>
+        <v>311.48936670739101</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" ref="K15:K26" si="16">(1-$B$3)*H15/100</f>
+        <v>6.920585208209401E-3</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" ref="L15:L26" si="17">K15*B15*N</f>
+        <v>61885.30464385252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A25" si="18">A15+3</f>
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88318092615396759</v>
+      </c>
+      <c r="C16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>90.438207500880452</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="11"/>
+        <v>68.280846663164738</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="12"/>
+        <v>60304.341394550887</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="13"/>
+        <v>0.91351724748364094</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3448527609250745</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="15"/>
+        <v>304.56738078056009</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="16"/>
+        <v>6.8513793561273077E-3</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="17"/>
+        <v>60510.0756517669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="18"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87227745792984479</v>
+      </c>
+      <c r="C17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>89.53382542587164</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="11"/>
+        <v>67.598038196533082</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="12"/>
+        <v>58964.244919116427</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="13"/>
+        <v>0.90438207500880452</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3414042333158237</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="15"/>
+        <v>297.7992167632143</v>
+      </c>
+      <c r="K17" s="22">
+        <f t="shared" si="16"/>
+        <v>6.7828655625660336E-3</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="17"/>
+        <v>59165.407303949862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86150860042453792</v>
+      </c>
+      <c r="C18" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>88.638487171612923</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="11"/>
+        <v>66.922057814567765</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="12"/>
+        <v>57653.928365358282</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="13"/>
+        <v>0.89533825425871638</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.33799019098266542</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="15"/>
+        <v>291.18145639069837</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="16"/>
+        <v>6.7150369069403724E-3</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="17"/>
+        <v>57850.620474973184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85087269177732161</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>87.752102299896791</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="11"/>
+        <v>66.252837236422067</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="12"/>
+        <v>56372.729957239215</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="13"/>
+        <v>0.88638487171612923</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.33461028907283874</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="15"/>
+        <v>284.710757359794</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="16"/>
+        <v>6.6478865378709695E-3</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="17"/>
+        <v>56565.051131084911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="18"/>
+        <v>42</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8403680906442681</v>
+      </c>
+      <c r="C20" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>86.874581276897828</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="11"/>
+        <v>65.59030886405786</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="12"/>
+        <v>55120.002624856119</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="13"/>
+        <v>0.87752102299896795</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.3312641861821104</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="15"/>
+        <v>278.38385164068745</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="16"/>
+        <v>6.5814076724922599E-3</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="17"/>
+        <v>55308.04999483857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="18"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82999317594495636</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>86.00583546412885</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="11"/>
+        <v>64.934405775417275</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="12"/>
+        <v>53895.113677637106</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="13"/>
+        <v>0.86874581276897833</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32795154432028928</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="15"/>
+        <v>272.19754382644999</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="16"/>
+        <v>6.5155935957673375E-3</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="17"/>
+        <v>54078.982217175508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="18"/>
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81974634661230239</v>
+      </c>
+      <c r="C22" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>85.145777109487554</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="11"/>
+        <v>64.285061717663098</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="12"/>
+        <v>52697.444484800704</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="13"/>
+        <v>0.86005835464128855</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32467202887708646</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="15"/>
+        <v>266.14870951919556</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="16"/>
+        <v>6.4504376598096651E-3</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="17"/>
+        <v>52877.227056793818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="18"/>
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80962602134548389</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>84.294319338392683</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="11"/>
+        <v>63.642211100486477</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="12"/>
+        <v>51526.390162916257</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="13"/>
+        <v>0.85145777109487553</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32142530858831547</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="15"/>
+        <v>260.2342937521023</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="16"/>
+        <v>6.3859332832115669E-3</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="17"/>
+        <v>51702.177566642837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79963063836590986</v>
+      </c>
+      <c r="C24" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>83.451376145008751</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="11"/>
+        <v>63.005788989481609</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="12"/>
+        <v>50381.359270406996</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="13"/>
+        <v>0.84294319338392687</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31821105550243239</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="15"/>
+        <v>254.45130944649998</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="16"/>
+        <v>6.3220739503794523E-3</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="17"/>
+        <v>50553.240287384106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78975865517620747</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>82.616862383558669</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="11"/>
+        <v>62.375731099586794</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="12"/>
+        <v>49261.773508842409</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="13"/>
+        <v>0.83451376145008749</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31502894494740802</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="15"/>
+        <v>248.79683590324447</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="16"/>
+        <v>6.2588532108756563E-3</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="17"/>
+        <v>49429.834947664465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+3</f>
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78000854832218014</v>
+      </c>
+      <c r="C26" s="19">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>81.790693759723084</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="10"/>
+        <v>75.5</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="11"/>
+        <v>61.751973788590931</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="12"/>
+        <v>48167.067430868134</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="13"/>
+        <v>0.82616862383558676</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="14"/>
+        <v>0.31187865549793403</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="15"/>
+        <v>243.26801732761689</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="16"/>
+        <v>6.1962646787669003E-3</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="17"/>
+        <v>48331.394171049695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="5">
-        <f>SUM(G7:G14)+SUM(J7:J14)</f>
-        <v>41603.280465341173</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="10" t="s">
+      <c r="H28" s="5">
+        <f>SUM(G7:G26)+SUM(J7:J26)</f>
+        <v>1208723.0180571652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5">
-        <f>SUM(L7:L14)</f>
-        <v>41603.280465341166</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="10" t="s">
+      <c r="H29" s="5">
+        <f>SUM(L7:L26)</f>
+        <v>1206751.9898071471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5">
-        <f>H17-H16</f>
-        <v>0</v>
+      <c r="H30" s="5">
+        <f>H29-H28</f>
+        <v>-1971.0282500181347</v>
       </c>
     </row>
   </sheetData>
